--- a/biology/Botanique/Square_Laurent-Prache/Square_Laurent-Prache.xlsx
+++ b/biology/Botanique/Square_Laurent-Prache/Square_Laurent-Prache.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Laurent-Prache est un jardin public du quartier Saint-Germain-des-Prés adossé à l'église de Saint Germain des Prés, dans le 6e arrondissement de Paris (France).
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entrée du site est située au no 1, place Saint-Germain-des-Prés.
 Accessible aux personnes à mobilité réduite, le square est desservi par la ligne 4 à la station Saint-Germain-des-Prés.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est nommé d'après le député Laurent Prache (1856-1919), homme politique français connu pour ses opinions antimaçonniques.
 </t>
@@ -575,9 +591,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square est créé en 1901 sur un emplacement libre créé dans le cadre du prolongement de la rue de Rennes jusqu'au quai de Conti, et déclaré d'utilité publique en 1866 après la démolition des 15-17, rue de l'Abbaye[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square est créé en 1901 sur un emplacement libre créé dans le cadre du prolongement de la rue de Rennes jusqu'au quai de Conti, et déclaré d'utilité publique en 1866 après la démolition des 15-17, rue de l'Abbaye.
 </t>
         </is>
       </c>
@@ -606,12 +624,49 @@
           <t>Prėsentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est peuplé de marronniers blancs et d'un marronnier rouge, d'un arbre de Judée et d'un if qui grandissent au milieu d’orangers du Mexique et de rhododendrons.
-On peut également y découvrir une petite fontaine Wallace, un buste de Dora Maar en bronze offert en 1959 par Picasso à la Ville de Paris  en hommage à son ami Guillaume Apollinaire, un médaillon et une plaque gravés en hommage à Laurent Prache par Hérain (1935), mais également des piles et des arcades de la chapelle de la Vierge de l'ancienne abbaye Saint-Germain-des-Prés, ainsi que des fragments de son cloître aujourd'hui disparu[2].
-Affaire du Buste de Dora Maar
-La tête en bronze est volée en 1999 et une enquête est ouverte à Paris. Elle est retrouvée dans un fossé à Osny (Val-d'Oise) par un employé municipal. La mairie d'Osny, ignorant l'origine de cette sculpture, déclare la découverte et l'expose dans le hall d'entrée de la mairie. En 2001, M. Tomaselli, visitant la mairie, s'étonne qu'un Picasso y soit exposé. Quelques mois plus tard, il reconnaît l'œuvre dans un livre et prévient la mairie de Paris, qui la récupère et la réinstalle dans le square Laurent-Prache après restauration[3],[4].
+On peut également y découvrir une petite fontaine Wallace, un buste de Dora Maar en bronze offert en 1959 par Picasso à la Ville de Paris  en hommage à son ami Guillaume Apollinaire, un médaillon et une plaque gravés en hommage à Laurent Prache par Hérain (1935), mais également des piles et des arcades de la chapelle de la Vierge de l'ancienne abbaye Saint-Germain-des-Prés, ainsi que des fragments de son cloître aujourd'hui disparu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Square_Laurent-Prache</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Square_Laurent-Prache</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prėsentation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Affaire du Buste de Dora Maar</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tête en bronze est volée en 1999 et une enquête est ouverte à Paris. Elle est retrouvée dans un fossé à Osny (Val-d'Oise) par un employé municipal. La mairie d'Osny, ignorant l'origine de cette sculpture, déclare la découverte et l'expose dans le hall d'entrée de la mairie. En 2001, M. Tomaselli, visitant la mairie, s'étonne qu'un Picasso y soit exposé. Quelques mois plus tard, il reconnaît l'œuvre dans un livre et prévient la mairie de Paris, qui la récupère et la réinstalle dans le square Laurent-Prache après restauration,.
 </t>
         </is>
       </c>
